--- a/psidis/expdata/20016.xlsx
+++ b/psidis/expdata/20016.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobethier/Documents/fitpack/database/psidis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/fitpack2/database/psidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166516A1-5FC5-2B4D-8E90-2E72F57229F1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6418D5AE-F907-EB4A-936C-C4B7E7971E77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16240" yWindow="480" windowWidth="15640" windowHeight="10660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" iterateDelta="1E-4"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="15">
   <si>
     <t>X</t>
   </si>
@@ -64,13 +64,19 @@
   </si>
   <si>
     <t>HERMES</t>
+  </si>
+  <si>
+    <t>zmin</t>
+  </si>
+  <si>
+    <t>zmax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -463,18 +469,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="8" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,8 +508,14 @@
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -531,8 +543,14 @@
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>0.2</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>4.7E-2</v>
       </c>
@@ -560,8 +578,14 @@
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>0.2</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>6.5000000000000002E-2</v>
       </c>
@@ -589,8 +613,14 @@
       <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>0.2</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>8.6999999999999994E-2</v>
       </c>
@@ -618,8 +648,14 @@
       <c r="I5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>0.2</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>0.11799999999999999</v>
       </c>
@@ -647,8 +683,14 @@
       <c r="I6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>0.2</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>0.16500000000000001</v>
       </c>
@@ -676,8 +718,14 @@
       <c r="I7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>0.2</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>0.23799999999999999</v>
       </c>
@@ -705,8 +753,14 @@
       <c r="I8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>0.2</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>0.33900000000000002</v>
       </c>
@@ -734,8 +788,14 @@
       <c r="I9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>0.2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>0.44700000000000001</v>
       </c>
@@ -762,6 +822,12 @@
       </c>
       <c r="I10" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="J10">
+        <v>0.2</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/psidis/expdata/20016.xlsx
+++ b/psidis/expdata/20016.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/fitpack2/database/psidis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/JAM Database/psidis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6418D5AE-F907-EB4A-936C-C4B7E7971E77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53C7566B-9C24-844D-83A5-90CF8924EC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16240" yWindow="480" windowWidth="15640" windowHeight="10660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="660" windowWidth="25260" windowHeight="10660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>A1</t>
   </si>
   <si>
-    <t>helium</t>
-  </si>
-  <si>
     <t>h-</t>
   </si>
   <si>
@@ -70,13 +67,16 @@
   </si>
   <si>
     <t>zmax</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -96,6 +96,14 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,9 +131,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -472,50 +483,50 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="8" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -535,13 +546,13 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2">
         <v>0.2</v>
@@ -550,7 +561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>4.7E-2</v>
       </c>
@@ -570,13 +581,13 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3">
         <v>0.2</v>
@@ -585,7 +596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>6.5000000000000002E-2</v>
       </c>
@@ -605,13 +616,13 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4">
         <v>0.2</v>
@@ -620,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>8.6999999999999994E-2</v>
       </c>
@@ -640,13 +651,13 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5">
         <v>0.2</v>
@@ -655,7 +666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0.11799999999999999</v>
       </c>
@@ -675,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6">
         <v>0.2</v>
@@ -690,7 +701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0.16500000000000001</v>
       </c>
@@ -710,13 +721,13 @@
         <v>5</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7">
         <v>0.2</v>
@@ -725,7 +736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.23799999999999999</v>
       </c>
@@ -745,13 +756,13 @@
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8">
         <v>0.2</v>
@@ -760,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0.33900000000000002</v>
       </c>
@@ -780,13 +791,13 @@
         <v>5</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9">
         <v>0.2</v>
@@ -795,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0.44700000000000001</v>
       </c>
@@ -815,13 +826,13 @@
         <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10">
         <v>0.2</v>
